--- a/hrm-automation/src/test/resources/data/DataProject.xlsx
+++ b/hrm-automation/src/test/resources/data/DataProject.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hrm-automation-framework\hrm-automation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB77D0-F8BA-4B5D-9A31-F5F9D5228C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7BAD90-F213-454E-BA18-03C25D883DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddProject" sheetId="1" r:id="rId1"/>
     <sheet name="SearchProject" sheetId="2" r:id="rId2"/>
-    <sheet name="DeleteProject" sheetId="3" r:id="rId3"/>
+    <sheet name="UploadFile" sheetId="5" r:id="rId3"/>
     <sheet name="UpdateProject" sheetId="4" r:id="rId4"/>
+    <sheet name="DeleteProject" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>TITLE</t>
   </si>
@@ -82,6 +83,27 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>FILEPATH</t>
+  </si>
+  <si>
+    <t>D:\IMAGE\user.png</t>
+  </si>
+  <si>
+    <t>D:\IMAGE\boy.png</t>
   </si>
 </sst>
 </file>
@@ -524,6 +546,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2C2DD8-96A9-4730-B746-5DB7233C37F3}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE456631-A0AE-40D6-88B8-3026499B5153}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D6664-D178-4C96-824A-53FD6A838520}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -556,55 +692,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE456631-A0AE-40D6-88B8-3026499B5153}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>